--- a/Project-Management/SSC & Strategy Task list.xlsx
+++ b/Project-Management/SSC & Strategy Task list.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mantid\Documents\Project-Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19155" windowHeight="9285"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19155" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="378">
   <si>
     <t>Excel plots are easy but with Mantid I need to teach myself everytime (Joe Kelleher) Counterarguments: do we want full blown plots in Mantid? Is this our mission?</t>
   </si>
@@ -867,20 +872,6 @@
   </si>
   <si>
     <t>change the algorithm base class</t>
-  </si>
-  <si>
-    <r>
-      <t>re-write </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>LoadEventNexus</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1283,6 +1274,134 @@
   </si>
   <si>
     <t>Task</t>
+  </si>
+  <si>
+    <t>Investigate remaining links, expose to python</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>Lamar is  doing this (some is already done)</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>Investigate and fix</t>
+  </si>
+  <si>
+    <t>3m &amp; ?3m</t>
+  </si>
+  <si>
+    <t>High level reorg</t>
+  </si>
+  <si>
+    <t>Reorg Framework code (decide what to do is hardest step)</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>Linux only</t>
+  </si>
+  <si>
+    <t>Decide what this means (some suggestions below)</t>
+  </si>
+  <si>
+    <t>Design and implement, estimate will vary based on sequqncing with workspace changes</t>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>6-12m</t>
+  </si>
+  <si>
+    <t>Define and separate</t>
+  </si>
+  <si>
+    <t>Separate expose and use</t>
+  </si>
+  <si>
+    <t>Ensuring everything is callable from C++ and python (in a pythonic way)</t>
+  </si>
+  <si>
+    <t>Improve alg documentation</t>
+  </si>
+  <si>
+    <t>Improve concepts docs</t>
+  </si>
+  <si>
+    <t>12m</t>
+  </si>
+  <si>
+    <t>SINE2020 Karl, plan and implement</t>
+  </si>
+  <si>
+    <t>12-24m</t>
+  </si>
+  <si>
+    <t>Find, chase include</t>
+  </si>
+  <si>
+    <t>Investigate better search options &amp; implement</t>
+  </si>
+  <si>
+    <t>12m+</t>
+  </si>
+  <si>
+    <t>plan and implement</t>
+  </si>
+  <si>
+    <t>6-9m</t>
+  </si>
+  <si>
+    <t>Plan agree and implement</t>
+  </si>
+  <si>
+    <t>16m+</t>
+  </si>
+  <si>
+    <t>Find an implement a use case requires a Instrument scientist to by a consumer</t>
+  </si>
+  <si>
+    <r>
+      <t>re-write </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LoadEventNexus and other that need it</t>
+    </r>
+  </si>
+  <si>
+    <t>MD and other workspace</t>
+  </si>
+  <si>
+    <t>Investigate, plan and implement basic</t>
+  </si>
+  <si>
+    <t>Visualisation and interaction</t>
+  </si>
+  <si>
+    <t>Make gui testable (MVP + unit or otherwise)</t>
+  </si>
+  <si>
+    <t>2-3m per interface (10+)</t>
+  </si>
+  <si>
+    <t>Refactor scripts, update uis</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1460,6 +1579,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1507,7 +1629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1542,7 +1664,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1753,17 +1875,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="117.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
@@ -1773,10 +1895,10 @@
         <v>48</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>18</v>
@@ -1785,10 +1907,10 @@
         <v>19</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1796,58 +1918,82 @@
         <v>243</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="D3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
+      <c r="B7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="D7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1857,7 +2003,7 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="34.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1865,7 +2011,7 @@
         <v>153</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1873,38 +2019,53 @@
         <v>153</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>153</v>
       </c>
@@ -1912,7 +2073,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>153</v>
       </c>
@@ -1920,7 +2081,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>153</v>
       </c>
@@ -1928,7 +2089,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>153</v>
       </c>
@@ -1936,7 +2097,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
@@ -1944,48 +2105,66 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>236</v>
       </c>
       <c r="F21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D23" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" ht="29.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>244</v>
       </c>
       <c r="F24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" collapsed="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1993,18 +2172,24 @@
         <v>243</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="D27" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2012,7 +2197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2023,12 +2208,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D30" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -2039,28 +2230,34 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="D32" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>153</v>
       </c>
@@ -2068,7 +2265,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
@@ -2076,7 +2273,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>153</v>
       </c>
@@ -2084,7 +2281,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>153</v>
       </c>
@@ -2092,31 +2289,31 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
@@ -2127,7 +2324,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>153</v>
       </c>
@@ -2138,7 +2335,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>153</v>
       </c>
@@ -2149,7 +2346,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>153</v>
       </c>
@@ -2160,29 +2357,41 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="D46" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D47" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,34 +2399,52 @@
         <v>243</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="D50" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="D53" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2225,15 +2452,15 @@
         <v>153</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="31.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2241,7 +2468,7 @@
         <v>153</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2263,12 +2490,18 @@
     <row r="59" spans="1:4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D60" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2279,7 +2512,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="29.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>153</v>
       </c>
@@ -2287,7 +2520,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="26.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>153</v>
       </c>
@@ -2319,7 +2552,7 @@
         <v>243</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2330,7 +2563,7 @@
         <v>243</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,22 +2573,40 @@
       <c r="A71" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="D71" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="D72" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="D73" s="4" t="s">
         <v>245</v>
       </c>
@@ -2365,7 +2616,7 @@
         <v>153</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>246</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2373,7 +2624,7 @@
         <v>153</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:6" collapsed="1" x14ac:dyDescent="0.25">
@@ -2385,34 +2636,46 @@
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D79" s="9" t="s">
         <v>84</v>
       </c>
@@ -2420,57 +2683,72 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="C81" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="D81" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>158</v>
@@ -2479,40 +2757,40 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F88" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F89" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" collapsed="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2520,7 +2798,7 @@
         <v>46</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E91" s="12"/>
     </row>
@@ -2529,7 +2807,7 @@
         <v>153</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2537,7 +2815,7 @@
         <v>153</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2545,20 +2823,20 @@
         <v>153</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D96" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2566,7 +2844,7 @@
         <v>153</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>193</v>
@@ -2635,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2706,7 +2984,7 @@
         <v>46</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>17</v>
@@ -2734,7 +3012,7 @@
         <v>46</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="69" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2775,7 +3053,7 @@
         <v>23</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2783,10 +3061,10 @@
         <v>46</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="42.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2876,7 +3154,7 @@
         <v>40</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2950,7 +3228,7 @@
         <v>46</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2958,13 +3236,13 @@
         <v>92</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F141" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2972,7 +3250,7 @@
         <v>92</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3007,7 +3285,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D147" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3037,7 +3315,7 @@
         <v>49</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3114,7 +3392,7 @@
     <row r="158" spans="1:5" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D159" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3136,7 +3414,7 @@
         <v>94</v>
       </c>
       <c r="F161" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3150,7 +3428,7 @@
         <v>95</v>
       </c>
       <c r="F162" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3169,7 +3447,7 @@
         <v>71</v>
       </c>
       <c r="F164" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3180,7 +3458,7 @@
         <v>72</v>
       </c>
       <c r="F165" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3264,7 +3542,7 @@
     <row r="175" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D176" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>102</v>
@@ -3917,12 +4195,12 @@
     <row r="223" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D224" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D225" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3930,7 +4208,7 @@
         <v>153</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3938,7 +4216,7 @@
         <v>153</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>189</v>
@@ -3993,7 +4271,7 @@
         <v>153</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="233" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4034,7 +4312,7 @@
         <v>153</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4064,7 +4342,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D240" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="241" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4267,7 +4545,7 @@
         <v>153</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="266" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4275,7 +4553,7 @@
         <v>153</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="267" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
